--- a/MOTHERBOARD V2/Power Driver/Project Outputs for Power Driver/Power Driver.xlsx
+++ b/MOTHERBOARD V2/Power Driver/Project Outputs for Power Driver/Power Driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3D-PRINTER\MOTHERBOARD V2\Power Driver\Project Outputs for Power Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE0B6DF-BC4F-43AC-9C94-9FA6C21A8F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C3BDA-1FA6-488C-A90E-A1B91F65AA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15285" xr2:uid="{47FD0525-E6CB-452C-859A-7994355228DA}"/>
+    <workbookView xWindow="41172" yWindow="3060" windowWidth="23256" windowHeight="12456" xr2:uid="{47FD0525-E6CB-452C-859A-7994355228DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Driver" sheetId="1" r:id="rId1"/>
@@ -37,29 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>Power (Watts)</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>B4B-XH-A_LF__SN_</t>
   </si>
   <si>
-    <t>Connector</t>
-  </si>
-  <si>
     <t>CN1, CN2, CN6, CN7, CN11, CN12</t>
   </si>
   <si>
@@ -189,9 +168,6 @@
     <t>MBRA120ET3G</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 1A SMA</t>
-  </si>
-  <si>
     <t>D1, D2, D3, D4, D5</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>IRLR7843TR</t>
   </si>
   <si>
-    <t>MOSFET (N-Channel)</t>
-  </si>
-  <si>
     <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7</t>
   </si>
   <si>
@@ -291,9 +264,6 @@
     <t>TMC2208-LA-T</t>
   </si>
   <si>
-    <t>Integrated Circuit</t>
-  </si>
-  <si>
     <t>U1, U2, U3, U4, U5</t>
   </si>
   <si>
@@ -325,6 +295,39 @@
   </si>
   <si>
     <t>SOP65P640X110-16N</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Wartość</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Numer elementu</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>JST  B4B-XH-A_LF__SN_</t>
+  </si>
+  <si>
+    <t>JST B2B-XH-AM_LF__SN_</t>
+  </si>
+  <si>
+    <t>FFC FH12-26S-0.5SH_55_</t>
+  </si>
+  <si>
+    <t>MBRA120ET3G DIODE SCHOTTKY 20V 1A SMA</t>
+  </si>
+  <si>
+    <t>IRLR7843TR MOSFET (N-Channel)</t>
   </si>
 </sst>
 </file>
@@ -381,12 +384,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -703,544 +715,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE921C4-387E-494F-BBB0-6DA69E826609}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="7">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="G8" s="7"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="G20" s="7"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="G22" s="7"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="1"/>
     </row>
   </sheetData>
